--- a/update-data/msc.xlsx
+++ b/update-data/msc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haziq.jasni/work/tradingview-syariah-indicator/update-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6182123C-48A3-9845-AAC6-F38C60739469}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8D45D4-11B5-3C4C-A03C-80FF38CADCCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="620" yWindow="460" windowWidth="32980" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'200 mil to 2 bil'!$A$3:$G$302</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'200 mil to 2 bil'!$A$1:$G$302</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'200 mil to 2 bil'!$3:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'200 mil to 2 bil'!$4:$4</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="1223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="1222">
   <si>
     <t>Stock Code</t>
   </si>
@@ -2333,9 +2333,6 @@
     <t>5131</t>
   </si>
   <si>
-    <t>List of Mid and Small Cap Companies Eligible For Stamp Duty Exemption As Of 31 December 2019</t>
-  </si>
-  <si>
     <t>6599</t>
   </si>
   <si>
@@ -3695,10 +3692,10 @@
     <t>MYL5131OO007</t>
   </si>
   <si>
-    <t>The stamp duty exemption will be applicable for trading of companies listed on Bursa Malaysia Securities with a market capitalization ranging between RM200 million and RM2 billion as at 31 December 2019 for eligibility in 2020.</t>
-  </si>
-  <si>
-    <t>https://www.bursamalaysia.com/trade/our_products_services/equities/stamp_duty_exemption_list</t>
+    <t>https://www.bursamalaysia.com/sites/5d809dcf39fba22790cad230/assets/5e1598515b711a666348f0e8/Mid_Small_Cap_PLCs__Mkt_cap_of_200_mil_to_2_bil__Dec2019_V3.0.pdf</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -3711,7 +3708,7 @@
     <numFmt numFmtId="165" formatCode="dd\/mm\/yyyy"/>
     <numFmt numFmtId="166" formatCode="0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3748,12 +3745,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -3763,9 +3754,10 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3778,14 +3770,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3823,14 +3809,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCACAD9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3852,12 +3847,19 @@
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4178,21 +4180,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I711"/>
+  <dimension ref="A1:S711"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="8" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" style="5"/>
     <col min="5" max="5" width="39" style="5" customWidth="1"/>
     <col min="6" max="6" width="11.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
     <col min="248" max="248" width="39.5" bestFit="1" customWidth="1"/>
     <col min="249" max="249" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="250" max="250" width="25.1640625" bestFit="1" customWidth="1"/>
@@ -4699,26 +4702,29 @@
     <col min="16129" max="16129" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="I1" s="12" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13">
+        <v>43830</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>453</v>
       </c>
@@ -4726,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
@@ -4741,7 +4747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -4749,7 +4755,7 @@
         <v>458</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>7</v>
@@ -4763,22 +4769,34 @@
       <c r="G4" s="3" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+    </row>
+    <row r="5" spans="1:19" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>769</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>770</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>4</v>
@@ -4787,21 +4805,21 @@
         <v>459</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>924</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>772</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>773</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>4</v>
@@ -4810,7 +4828,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -4818,7 +4836,7 @@
         <v>460</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>43</v>
@@ -4833,7 +4851,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -4841,7 +4859,7 @@
         <v>461</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>59</v>
@@ -4856,7 +4874,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -4864,7 +4882,7 @@
         <v>462</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>317</v>
@@ -4879,21 +4897,21 @@
         <v>463</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>775</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>776</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -4902,7 +4920,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -4910,7 +4928,7 @@
         <v>464</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>287</v>
@@ -4925,7 +4943,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -4933,7 +4951,7 @@
         <v>465</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>67</v>
@@ -4948,7 +4966,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -4956,7 +4974,7 @@
         <v>466</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>467</v>
@@ -4971,7 +4989,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -4979,7 +4997,7 @@
         <v>471</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>211</v>
@@ -4994,7 +5012,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -5002,7 +5020,7 @@
         <v>473</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>179</v>
@@ -5017,7 +5035,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -5025,7 +5043,7 @@
         <v>474</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>380</v>
@@ -5040,7 +5058,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -5048,7 +5066,7 @@
         <v>475</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>265</v>
@@ -5063,7 +5081,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -5071,7 +5089,7 @@
         <v>476</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>79</v>
@@ -5086,7 +5104,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -5094,7 +5112,7 @@
         <v>477</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>456</v>
@@ -5109,7 +5127,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -5117,7 +5135,7 @@
         <v>478</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>365</v>
@@ -5132,7 +5150,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -5140,7 +5158,7 @@
         <v>480</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>75</v>
@@ -5155,7 +5173,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -5163,7 +5181,7 @@
         <v>481</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>19</v>
@@ -5178,7 +5196,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -5186,7 +5204,7 @@
         <v>482</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>189</v>
@@ -5201,7 +5219,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -5209,7 +5227,7 @@
         <v>483</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>15</v>
@@ -5223,8 +5241,11 @@
       <c r="G24" s="3" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="K24" s="9" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -5232,7 +5253,7 @@
         <v>484</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>154</v>
@@ -5247,7 +5268,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -5255,7 +5276,7 @@
         <v>486</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>333</v>
@@ -5270,21 +5291,21 @@
         <v>469</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>24</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>945</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>778</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>779</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>4</v>
@@ -5293,7 +5314,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -5301,7 +5322,7 @@
         <v>487</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>331</v>
@@ -5316,7 +5337,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -5324,7 +5345,7 @@
         <v>488</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>315</v>
@@ -5339,21 +5360,21 @@
         <v>489</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>27</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>947</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>948</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>781</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>782</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>4</v>
@@ -5362,7 +5383,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -5370,7 +5391,7 @@
         <v>490</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>491</v>
@@ -5385,7 +5406,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -5393,7 +5414,7 @@
         <v>493</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>366</v>
@@ -5408,7 +5429,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -5416,7 +5437,7 @@
         <v>506</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>374</v>
@@ -5431,7 +5452,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -5439,7 +5460,7 @@
         <v>496</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>251</v>
@@ -5454,7 +5475,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -5462,7 +5483,7 @@
         <v>497</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>269</v>
@@ -5477,21 +5498,21 @@
         <v>469</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>33</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>953</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>954</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>784</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>785</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>4</v>
@@ -5500,7 +5521,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -5508,7 +5529,7 @@
         <v>498</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>311</v>
@@ -5523,7 +5544,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -5531,7 +5552,7 @@
         <v>499</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>107</v>
@@ -5546,7 +5567,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -5554,7 +5575,7 @@
         <v>500</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>388</v>
@@ -5569,21 +5590,21 @@
         <v>459</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>37</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>957</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>958</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>787</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>788</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>4</v>
@@ -5592,7 +5613,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -5600,7 +5621,7 @@
         <v>502</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>406</v>
@@ -5615,7 +5636,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -5623,7 +5644,7 @@
         <v>503</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>199</v>
@@ -5638,7 +5659,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -5646,7 +5667,7 @@
         <v>504</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>191</v>
@@ -5661,7 +5682,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -5669,7 +5690,7 @@
         <v>505</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>273</v>
@@ -5684,7 +5705,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -5692,7 +5713,7 @@
         <v>510</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>195</v>
@@ -5707,7 +5728,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -5715,7 +5736,7 @@
         <v>511</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>245</v>
@@ -5730,7 +5751,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -5738,7 +5759,7 @@
         <v>512</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>207</v>
@@ -5753,7 +5774,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -5761,7 +5782,7 @@
         <v>513</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>378</v>
@@ -5776,7 +5797,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -5784,7 +5805,7 @@
         <v>514</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>351</v>
@@ -5799,7 +5820,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -5807,7 +5828,7 @@
         <v>515</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>253</v>
@@ -5822,21 +5843,21 @@
         <v>469</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>48</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>968</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>969</v>
-      </c>
-      <c r="D51" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>790</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>791</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>4</v>
@@ -5845,7 +5866,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>49</v>
       </c>
@@ -5853,7 +5874,7 @@
         <v>516</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>231</v>
@@ -5868,7 +5889,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>50</v>
       </c>
@@ -5876,7 +5897,7 @@
         <v>524</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>161</v>
@@ -5891,7 +5912,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>51</v>
       </c>
@@ -5899,7 +5920,7 @@
         <v>517</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>131</v>
@@ -5914,7 +5935,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>52</v>
       </c>
@@ -5922,7 +5943,7 @@
         <v>518</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>158</v>
@@ -5937,7 +5958,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>53</v>
       </c>
@@ -5945,7 +5966,7 @@
         <v>520</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>31</v>
@@ -5960,7 +5981,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>54</v>
       </c>
@@ -5968,7 +5989,7 @@
         <v>521</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>368</v>
@@ -5983,7 +6004,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>55</v>
       </c>
@@ -5991,7 +6012,7 @@
         <v>522</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>243</v>
@@ -6006,7 +6027,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>56</v>
       </c>
@@ -6014,7 +6035,7 @@
         <v>523</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>227</v>
@@ -6029,7 +6050,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>57</v>
       </c>
@@ -6037,7 +6058,7 @@
         <v>525</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>446</v>
@@ -6052,7 +6073,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>58</v>
       </c>
@@ -6060,7 +6081,7 @@
         <v>526</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>450</v>
@@ -6075,7 +6096,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>59</v>
       </c>
@@ -6083,13 +6104,13 @@
         <v>501</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D62" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>792</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>793</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
@@ -6098,7 +6119,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>60</v>
       </c>
@@ -6106,7 +6127,7 @@
         <v>527</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>309</v>
@@ -6121,7 +6142,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>61</v>
       </c>
@@ -6129,7 +6150,7 @@
         <v>528</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>9</v>
@@ -6144,7 +6165,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>62</v>
       </c>
@@ -6152,7 +6173,7 @@
         <v>529</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>436</v>
@@ -6167,7 +6188,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>63</v>
       </c>
@@ -6175,7 +6196,7 @@
         <v>530</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>25</v>
@@ -6190,7 +6211,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>64</v>
       </c>
@@ -6198,7 +6219,7 @@
         <v>531</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>382</v>
@@ -6213,7 +6234,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>65</v>
       </c>
@@ -6221,7 +6242,7 @@
         <v>532</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>167</v>
@@ -6236,7 +6257,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>66</v>
       </c>
@@ -6244,7 +6265,7 @@
         <v>533</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>301</v>
@@ -6259,7 +6280,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>67</v>
       </c>
@@ -6267,7 +6288,7 @@
         <v>534</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>271</v>
@@ -6282,7 +6303,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>68</v>
       </c>
@@ -6290,7 +6311,7 @@
         <v>535</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>193</v>
@@ -6305,21 +6326,21 @@
         <v>494</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>69</v>
       </c>
       <c r="B72" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="C72" s="7" t="s">
-        <v>990</v>
-      </c>
-      <c r="D72" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>795</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>796</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>4</v>
@@ -6328,7 +6349,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>70</v>
       </c>
@@ -6336,7 +6357,7 @@
         <v>536</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>63</v>
@@ -6351,7 +6372,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>71</v>
       </c>
@@ -6359,7 +6380,7 @@
         <v>537</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>241</v>
@@ -6374,7 +6395,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>72</v>
       </c>
@@ -6382,7 +6403,7 @@
         <v>538</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>426</v>
@@ -6397,7 +6418,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>73</v>
       </c>
@@ -6405,7 +6426,7 @@
         <v>539</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>289</v>
@@ -6420,7 +6441,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>74</v>
       </c>
@@ -6428,7 +6449,7 @@
         <v>540</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>398</v>
@@ -6443,7 +6464,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>75</v>
       </c>
@@ -6451,7 +6472,7 @@
         <v>541</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>335</v>
@@ -6466,21 +6487,21 @@
         <v>459</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>76</v>
       </c>
       <c r="B79" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>996</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="C79" s="7" t="s">
-        <v>997</v>
-      </c>
-      <c r="D79" s="3" t="s">
+      <c r="E79" s="3" t="s">
         <v>798</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>799</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>4</v>
@@ -6489,7 +6510,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>77</v>
       </c>
@@ -6497,7 +6518,7 @@
         <v>542</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>396</v>
@@ -6512,7 +6533,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>78</v>
       </c>
@@ -6520,7 +6541,7 @@
         <v>543</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>123</v>
@@ -6535,7 +6556,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>79</v>
       </c>
@@ -6543,7 +6564,7 @@
         <v>544</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>177</v>
@@ -6558,21 +6579,21 @@
         <v>494</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>80</v>
       </c>
       <c r="B83" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="C83" s="7" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D83" s="3" t="s">
+      <c r="E83" s="3" t="s">
         <v>801</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>802</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>151</v>
@@ -6581,7 +6602,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>81</v>
       </c>
@@ -6589,7 +6610,7 @@
         <v>545</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>546</v>
@@ -6604,21 +6625,21 @@
         <v>489</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>82</v>
       </c>
       <c r="B85" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="C85" s="7" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D85" s="3" t="s">
+      <c r="E85" s="3" t="s">
         <v>804</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>805</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>151</v>
@@ -6627,7 +6648,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>83</v>
       </c>
@@ -6635,7 +6656,7 @@
         <v>548</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>5</v>
@@ -6650,7 +6671,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>84</v>
       </c>
@@ -6658,7 +6679,7 @@
         <v>549</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>99</v>
@@ -6673,7 +6694,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>85</v>
       </c>
@@ -6681,7 +6702,7 @@
         <v>550</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>13</v>
@@ -6696,7 +6717,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
         <v>86</v>
       </c>
@@ -6704,7 +6725,7 @@
         <v>551</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>319</v>
@@ -6719,21 +6740,21 @@
         <v>463</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
         <v>87</v>
       </c>
       <c r="B90" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="C90" s="7" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D90" s="3" t="s">
+      <c r="E90" s="3" t="s">
         <v>807</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>808</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>151</v>
@@ -6742,7 +6763,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>88</v>
       </c>
@@ -6750,7 +6771,7 @@
         <v>552</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>345</v>
@@ -6765,7 +6786,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
         <v>89</v>
       </c>
@@ -6773,7 +6794,7 @@
         <v>554</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>145</v>
@@ -6788,7 +6809,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
         <v>90</v>
       </c>
@@ -6796,7 +6817,7 @@
         <v>555</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>29</v>
@@ -6811,7 +6832,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
         <v>91</v>
       </c>
@@ -6819,7 +6840,7 @@
         <v>556</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>557</v>
@@ -6834,7 +6855,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
         <v>92</v>
       </c>
@@ -6842,7 +6863,7 @@
         <v>559</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>402</v>
@@ -6857,7 +6878,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
         <v>93</v>
       </c>
@@ -6865,7 +6886,7 @@
         <v>560</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>430</v>
@@ -6880,7 +6901,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
         <v>94</v>
       </c>
@@ -6888,7 +6909,7 @@
         <v>561</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>275</v>
@@ -6903,7 +6924,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
         <v>95</v>
       </c>
@@ -6911,7 +6932,7 @@
         <v>562</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>563</v>
@@ -6926,7 +6947,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
         <v>96</v>
       </c>
@@ -6934,7 +6955,7 @@
         <v>565</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>209</v>
@@ -6949,21 +6970,21 @@
         <v>469</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
         <v>97</v>
       </c>
       <c r="B100" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="C100" s="7" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D100" s="3" t="s">
+      <c r="E100" s="3" t="s">
         <v>810</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>811</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>4</v>
@@ -6972,7 +6993,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
         <v>98</v>
       </c>
@@ -6980,7 +7001,7 @@
         <v>566</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>279</v>
@@ -6995,7 +7016,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
         <v>99</v>
       </c>
@@ -7003,7 +7024,7 @@
         <v>567</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>39</v>
@@ -7018,21 +7039,21 @@
         <v>495</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
         <v>100</v>
       </c>
       <c r="B103" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="C103" s="7" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D103" s="3" t="s">
+      <c r="E103" s="3" t="s">
         <v>813</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>814</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>4</v>
@@ -7041,7 +7062,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="104" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
         <v>101</v>
       </c>
@@ -7049,7 +7070,7 @@
         <v>568</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>137</v>
@@ -7064,7 +7085,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
         <v>102</v>
       </c>
@@ -7072,7 +7093,7 @@
         <v>569</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>305</v>
@@ -7087,7 +7108,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
         <v>103</v>
       </c>
@@ -7095,7 +7116,7 @@
         <v>570</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>93</v>
@@ -7110,7 +7131,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A107" s="2">
         <v>104</v>
       </c>
@@ -7118,7 +7139,7 @@
         <v>571</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>121</v>
@@ -7133,7 +7154,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
         <v>105</v>
       </c>
@@ -7141,7 +7162,7 @@
         <v>572</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>285</v>
@@ -7156,7 +7177,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
         <v>106</v>
       </c>
@@ -7164,7 +7185,7 @@
         <v>573</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>357</v>
@@ -7179,7 +7200,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
         <v>107</v>
       </c>
@@ -7187,7 +7208,7 @@
         <v>574</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>575</v>
@@ -7202,21 +7223,21 @@
         <v>577</v>
       </c>
     </row>
-    <row r="111" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
         <v>108</v>
       </c>
       <c r="B111" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="C111" s="7" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D111" s="3" t="s">
+      <c r="E111" s="3" t="s">
         <v>816</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>817</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>4</v>
@@ -7225,21 +7246,21 @@
         <v>463</v>
       </c>
     </row>
-    <row r="112" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
         <v>109</v>
       </c>
       <c r="B112" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="C112" s="7" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D112" s="3" t="s">
+      <c r="E112" s="3" t="s">
         <v>819</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>820</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>151</v>
@@ -7248,7 +7269,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="113" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
         <v>110</v>
       </c>
@@ -7256,7 +7277,7 @@
         <v>578</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>418</v>
@@ -7271,7 +7292,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="114" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A114" s="2">
         <v>111</v>
       </c>
@@ -7279,7 +7300,7 @@
         <v>579</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>267</v>
@@ -7294,7 +7315,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="115" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A115" s="2">
         <v>112</v>
       </c>
@@ -7302,7 +7323,7 @@
         <v>580</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>217</v>
@@ -7317,7 +7338,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="116" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A116" s="2">
         <v>113</v>
       </c>
@@ -7325,7 +7346,7 @@
         <v>581</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>313</v>
@@ -7340,7 +7361,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="117" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
         <v>114</v>
       </c>
@@ -7348,7 +7369,7 @@
         <v>582</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>69</v>
@@ -7363,21 +7384,21 @@
         <v>463</v>
       </c>
     </row>
-    <row r="118" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A118" s="2">
         <v>115</v>
       </c>
       <c r="B118" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="C118" s="7" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D118" s="3" t="s">
+      <c r="E118" s="3" t="s">
         <v>822</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>823</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>151</v>
@@ -7386,7 +7407,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="119" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
         <v>116</v>
       </c>
@@ -7394,7 +7415,7 @@
         <v>583</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>175</v>
@@ -7409,7 +7430,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="120" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A120" s="2">
         <v>117</v>
       </c>
@@ -7417,7 +7438,7 @@
         <v>584</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>85</v>
@@ -7432,7 +7453,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="121" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A121" s="2">
         <v>118</v>
       </c>
@@ -7440,7 +7461,7 @@
         <v>585</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>119</v>
@@ -7455,21 +7476,21 @@
         <v>509</v>
       </c>
     </row>
-    <row r="122" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A122" s="2">
         <v>119</v>
       </c>
       <c r="B122" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D122" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="C122" s="7" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D122" s="3" t="s">
+      <c r="E122" s="3" t="s">
         <v>825</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>826</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>151</v>
@@ -7478,7 +7499,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="123" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A123" s="2">
         <v>120</v>
       </c>
@@ -7486,7 +7507,7 @@
         <v>586</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>149</v>
@@ -7501,7 +7522,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="124" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A124" s="2">
         <v>121</v>
       </c>
@@ -7509,7 +7530,7 @@
         <v>587</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>370</v>
@@ -7524,7 +7545,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="125" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A125" s="2">
         <v>122</v>
       </c>
@@ -7532,7 +7553,7 @@
         <v>588</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>57</v>
@@ -7547,7 +7568,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="126" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A126" s="2">
         <v>123</v>
       </c>
@@ -7555,7 +7576,7 @@
         <v>589</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>83</v>
@@ -7570,7 +7591,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="127" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A127" s="2">
         <v>124</v>
       </c>
@@ -7578,7 +7599,7 @@
         <v>590</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>17</v>
@@ -7593,21 +7614,21 @@
         <v>469</v>
       </c>
     </row>
-    <row r="128" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
         <v>125</v>
       </c>
       <c r="B128" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D128" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="C128" s="7" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D128" s="3" t="s">
+      <c r="E128" s="3" t="s">
         <v>828</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>829</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>151</v>
@@ -7616,7 +7637,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="129" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A129" s="2">
         <v>126</v>
       </c>
@@ -7624,7 +7645,7 @@
         <v>591</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>592</v>
@@ -7639,7 +7660,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="130" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A130" s="2">
         <v>127</v>
       </c>
@@ -7647,7 +7668,7 @@
         <v>594</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>363</v>
@@ -7662,7 +7683,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="131" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A131" s="2">
         <v>128</v>
       </c>
@@ -7670,7 +7691,7 @@
         <v>595</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>596</v>
@@ -7685,7 +7706,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="132" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A132" s="2">
         <v>129</v>
       </c>
@@ -7693,7 +7714,7 @@
         <v>598</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>135</v>
@@ -7708,7 +7729,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="133" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A133" s="2">
         <v>130</v>
       </c>
@@ -7716,7 +7737,7 @@
         <v>599</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>53</v>
@@ -7731,7 +7752,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="134" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A134" s="2">
         <v>131</v>
       </c>
@@ -7739,7 +7760,7 @@
         <v>600</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>183</v>
@@ -7754,7 +7775,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="135" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A135" s="2">
         <v>132</v>
       </c>
@@ -7762,7 +7783,7 @@
         <v>601</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>438</v>
@@ -7777,7 +7798,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="136" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A136" s="2">
         <v>133</v>
       </c>
@@ -7785,7 +7806,7 @@
         <v>602</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>444</v>
@@ -7800,21 +7821,21 @@
         <v>485</v>
       </c>
     </row>
-    <row r="137" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A137" s="2">
         <v>134</v>
       </c>
       <c r="B137" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D137" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="C137" s="7" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D137" s="3" t="s">
+      <c r="E137" s="3" t="s">
         <v>831</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>832</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>4</v>
@@ -7823,7 +7844,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="138" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A138" s="2">
         <v>135</v>
       </c>
@@ -7831,7 +7852,7 @@
         <v>603</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>440</v>
@@ -7846,7 +7867,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="139" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A139" s="2">
         <v>136</v>
       </c>
@@ -7854,7 +7875,7 @@
         <v>604</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>61</v>
@@ -7869,7 +7890,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="140" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A140" s="2">
         <v>137</v>
       </c>
@@ -7877,7 +7898,7 @@
         <v>605</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>410</v>
@@ -7892,7 +7913,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="141" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A141" s="2">
         <v>138</v>
       </c>
@@ -7900,7 +7921,7 @@
         <v>606</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>77</v>
@@ -7915,7 +7936,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="142" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A142" s="2">
         <v>139</v>
       </c>
@@ -7923,7 +7944,7 @@
         <v>607</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>608</v>
@@ -7938,7 +7959,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="143" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A143" s="2">
         <v>140</v>
       </c>
@@ -7946,7 +7967,7 @@
         <v>610</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>321</v>
@@ -7961,7 +7982,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="144" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A144" s="2">
         <v>141</v>
       </c>
@@ -7969,7 +7990,7 @@
         <v>611</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>215</v>
@@ -7984,7 +8005,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="145" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A145" s="2">
         <v>142</v>
       </c>
@@ -7992,7 +8013,7 @@
         <v>613</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>325</v>
@@ -8007,7 +8028,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="146" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A146" s="2">
         <v>143</v>
       </c>
@@ -8015,7 +8036,7 @@
         <v>614</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>225</v>
@@ -8030,7 +8051,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="147" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A147" s="2">
         <v>144</v>
       </c>
@@ -8038,7 +8059,7 @@
         <v>615</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>341</v>
@@ -8053,7 +8074,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="148" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A148" s="2">
         <v>145</v>
       </c>
@@ -8061,7 +8082,7 @@
         <v>616</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>339</v>
@@ -8076,7 +8097,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="149" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A149" s="2">
         <v>146</v>
       </c>
@@ -8084,7 +8105,7 @@
         <v>617</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>239</v>
@@ -8099,7 +8120,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="150" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A150" s="2">
         <v>147</v>
       </c>
@@ -8107,7 +8128,7 @@
         <v>618</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>27</v>
@@ -8122,7 +8143,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="151" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A151" s="2">
         <v>148</v>
       </c>
@@ -8130,7 +8151,7 @@
         <v>619</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>219</v>
@@ -8145,7 +8166,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="152" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A152" s="2">
         <v>149</v>
       </c>
@@ -8153,7 +8174,7 @@
         <v>620</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>95</v>
@@ -8168,7 +8189,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="153" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A153" s="2">
         <v>150</v>
       </c>
@@ -8176,7 +8197,7 @@
         <v>621</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>221</v>
@@ -8191,21 +8212,21 @@
         <v>469</v>
       </c>
     </row>
-    <row r="154" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A154" s="2">
         <v>151</v>
       </c>
       <c r="B154" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D154" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="C154" s="7" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D154" s="3" t="s">
+      <c r="E154" s="3" t="s">
         <v>834</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>835</v>
       </c>
       <c r="F154" s="3" t="s">
         <v>4</v>
@@ -8214,7 +8235,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="155" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A155" s="2">
         <v>152</v>
       </c>
@@ -8222,7 +8243,7 @@
         <v>622</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>337</v>
@@ -8237,7 +8258,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="156" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A156" s="2">
         <v>153</v>
       </c>
@@ -8245,7 +8266,7 @@
         <v>623</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>115</v>
@@ -8260,21 +8281,21 @@
         <v>459</v>
       </c>
     </row>
-    <row r="157" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A157" s="2">
         <v>154</v>
       </c>
       <c r="B157" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D157" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="C157" s="7" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D157" s="3" t="s">
+      <c r="E157" s="3" t="s">
         <v>837</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>838</v>
       </c>
       <c r="F157" s="3" t="s">
         <v>4</v>
@@ -8283,7 +8304,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="158" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A158" s="2">
         <v>155</v>
       </c>
@@ -8291,7 +8312,7 @@
         <v>624</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>87</v>
@@ -8306,7 +8327,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="159" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A159" s="2">
         <v>156</v>
       </c>
@@ -8314,7 +8335,7 @@
         <v>625</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>197</v>
@@ -8329,7 +8350,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="160" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A160" s="2">
         <v>157</v>
       </c>
@@ -8337,7 +8358,7 @@
         <v>626</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>55</v>
@@ -8352,7 +8373,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="161" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A161" s="2">
         <v>158</v>
       </c>
@@ -8360,7 +8381,7 @@
         <v>628</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>400</v>
@@ -8375,7 +8396,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="162" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A162" s="2">
         <v>159</v>
       </c>
@@ -8383,7 +8404,7 @@
         <v>627</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>141</v>
@@ -8398,7 +8419,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="163" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A163" s="2">
         <v>160</v>
       </c>
@@ -8406,7 +8427,7 @@
         <v>629</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>295</v>
@@ -8421,7 +8442,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="164" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A164" s="2">
         <v>161</v>
       </c>
@@ -8429,7 +8450,7 @@
         <v>630</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>203</v>
@@ -8444,7 +8465,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="165" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A165" s="2">
         <v>162</v>
       </c>
@@ -8452,7 +8473,7 @@
         <v>631</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>23</v>
@@ -8467,7 +8488,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="166" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A166" s="2">
         <v>163</v>
       </c>
@@ -8475,7 +8496,7 @@
         <v>633</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>404</v>
@@ -8490,7 +8511,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="167" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A167" s="2">
         <v>164</v>
       </c>
@@ -8498,7 +8519,7 @@
         <v>632</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>129</v>
@@ -8513,7 +8534,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="168" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A168" s="2">
         <v>165</v>
       </c>
@@ -8521,7 +8542,7 @@
         <v>634</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>81</v>
@@ -8536,7 +8557,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="169" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A169" s="2">
         <v>166</v>
       </c>
@@ -8544,7 +8565,7 @@
         <v>635</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>205</v>
@@ -8559,7 +8580,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="170" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A170" s="2">
         <v>167</v>
       </c>
@@ -8567,7 +8588,7 @@
         <v>636</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>133</v>
@@ -8582,7 +8603,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="171" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A171" s="2">
         <v>168</v>
       </c>
@@ -8590,7 +8611,7 @@
         <v>637</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>454</v>
@@ -8605,7 +8626,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="172" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A172" s="2">
         <v>169</v>
       </c>
@@ -8613,13 +8634,13 @@
         <v>638</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>639</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F172" s="3" t="s">
         <v>4</v>
@@ -8628,7 +8649,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="173" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A173" s="2">
         <v>170</v>
       </c>
@@ -8636,7 +8657,7 @@
         <v>640</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>201</v>
@@ -8651,7 +8672,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="174" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A174" s="2">
         <v>171</v>
       </c>
@@ -8659,7 +8680,7 @@
         <v>642</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>420</v>
@@ -8674,7 +8695,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="175" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A175" s="2">
         <v>172</v>
       </c>
@@ -8682,7 +8703,7 @@
         <v>641</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>109</v>
@@ -8697,21 +8718,21 @@
         <v>463</v>
       </c>
     </row>
-    <row r="176" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A176" s="2">
         <v>173</v>
       </c>
       <c r="B176" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D176" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="C176" s="7" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D176" s="3" t="s">
+      <c r="E176" s="3" t="s">
         <v>841</v>
-      </c>
-      <c r="E176" s="3" t="s">
-        <v>842</v>
       </c>
       <c r="F176" s="3" t="s">
         <v>151</v>
@@ -8720,7 +8741,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="177" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A177" s="2">
         <v>174</v>
       </c>
@@ -8728,7 +8749,7 @@
         <v>643</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>173</v>
@@ -8743,7 +8764,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="178" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A178" s="2">
         <v>175</v>
       </c>
@@ -8751,7 +8772,7 @@
         <v>644</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>117</v>
@@ -8766,7 +8787,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="179" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A179" s="2">
         <v>176</v>
       </c>
@@ -8774,7 +8795,7 @@
         <v>645</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>646</v>
@@ -8789,21 +8810,21 @@
         <v>459</v>
       </c>
     </row>
-    <row r="180" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A180" s="2">
         <v>177</v>
       </c>
       <c r="B180" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D180" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="C180" s="7" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D180" s="3" t="s">
+      <c r="E180" s="3" t="s">
         <v>844</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>845</v>
       </c>
       <c r="F180" s="3" t="s">
         <v>151</v>
@@ -8812,7 +8833,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="181" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A181" s="2">
         <v>178</v>
       </c>
@@ -8820,7 +8841,7 @@
         <v>648</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>355</v>
@@ -8835,21 +8856,21 @@
         <v>469</v>
       </c>
     </row>
-    <row r="182" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A182" s="2">
         <v>179</v>
       </c>
       <c r="B182" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D182" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="C182" s="7" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D182" s="3" t="s">
+      <c r="E182" s="3" t="s">
         <v>847</v>
-      </c>
-      <c r="E182" s="3" t="s">
-        <v>848</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>4</v>
@@ -8858,7 +8879,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="183" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A183" s="2">
         <v>180</v>
       </c>
@@ -8866,7 +8887,7 @@
         <v>649</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>41</v>
@@ -8881,7 +8902,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="184" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A184" s="2">
         <v>181</v>
       </c>
@@ -8889,7 +8910,7 @@
         <v>650</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>139</v>
@@ -8904,7 +8925,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="185" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A185" s="2">
         <v>182</v>
       </c>
@@ -8912,7 +8933,7 @@
         <v>651</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>103</v>
@@ -8927,7 +8948,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="186" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A186" s="2">
         <v>183</v>
       </c>
@@ -8935,7 +8956,7 @@
         <v>652</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>327</v>
@@ -8950,7 +8971,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="187" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A187" s="2">
         <v>184</v>
       </c>
@@ -8958,7 +8979,7 @@
         <v>653</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>384</v>
@@ -8973,7 +8994,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="188" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A188" s="2">
         <v>185</v>
       </c>
@@ -8981,7 +9002,7 @@
         <v>654</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>432</v>
@@ -8996,7 +9017,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="189" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A189" s="2">
         <v>186</v>
       </c>
@@ -9004,7 +9025,7 @@
         <v>655</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>434</v>
@@ -9019,21 +9040,21 @@
         <v>459</v>
       </c>
     </row>
-    <row r="190" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A190" s="2">
         <v>187</v>
       </c>
       <c r="B190" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D190" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="C190" s="7" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D190" s="3" t="s">
+      <c r="E190" s="3" t="s">
         <v>850</v>
-      </c>
-      <c r="E190" s="3" t="s">
-        <v>851</v>
       </c>
       <c r="F190" s="3" t="s">
         <v>4</v>
@@ -9042,7 +9063,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="191" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A191" s="2">
         <v>188</v>
       </c>
@@ -9050,7 +9071,7 @@
         <v>656</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>448</v>
@@ -9065,7 +9086,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="192" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A192" s="2">
         <v>189</v>
       </c>
@@ -9073,7 +9094,7 @@
         <v>657</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>442</v>
@@ -9088,7 +9109,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="193" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A193" s="2">
         <v>190</v>
       </c>
@@ -9096,7 +9117,7 @@
         <v>658</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>181</v>
@@ -9111,7 +9132,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="194" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A194" s="2">
         <v>191</v>
       </c>
@@ -9119,7 +9140,7 @@
         <v>659</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D194" s="3" t="s">
         <v>152</v>
@@ -9134,21 +9155,21 @@
         <v>553</v>
       </c>
     </row>
-    <row r="195" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A195" s="2">
         <v>192</v>
       </c>
       <c r="B195" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D195" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="C195" s="7" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D195" s="3" t="s">
+      <c r="E195" s="3" t="s">
         <v>853</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>854</v>
       </c>
       <c r="F195" s="3" t="s">
         <v>4</v>
@@ -9157,7 +9178,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="196" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A196" s="2">
         <v>193</v>
       </c>
@@ -9165,7 +9186,7 @@
         <v>660</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>390</v>
@@ -9180,7 +9201,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="197" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A197" s="2">
         <v>194</v>
       </c>
@@ -9188,7 +9209,7 @@
         <v>675</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>159</v>
@@ -9203,7 +9224,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="198" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A198" s="2">
         <v>195</v>
       </c>
@@ -9211,7 +9232,7 @@
         <v>661</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>408</v>
@@ -9226,7 +9247,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="199" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A199" s="2">
         <v>196</v>
       </c>
@@ -9234,7 +9255,7 @@
         <v>662</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>663</v>
@@ -9249,7 +9270,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="200" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A200" s="2">
         <v>197</v>
       </c>
@@ -9257,7 +9278,7 @@
         <v>665</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>303</v>
@@ -9272,7 +9293,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="201" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A201" s="2">
         <v>198</v>
       </c>
@@ -9280,7 +9301,7 @@
         <v>666</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>156</v>
@@ -9295,7 +9316,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="202" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A202" s="2">
         <v>199</v>
       </c>
@@ -9303,7 +9324,7 @@
         <v>667</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D202" s="3" t="s">
         <v>263</v>
@@ -9318,7 +9339,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="203" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A203" s="2">
         <v>200</v>
       </c>
@@ -9326,7 +9347,7 @@
         <v>668</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>361</v>
@@ -9341,21 +9362,21 @@
         <v>612</v>
       </c>
     </row>
-    <row r="204" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A204" s="2">
         <v>201</v>
       </c>
       <c r="B204" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D204" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="C204" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D204" s="3" t="s">
+      <c r="E204" s="3" t="s">
         <v>856</v>
-      </c>
-      <c r="E204" s="3" t="s">
-        <v>857</v>
       </c>
       <c r="F204" s="3" t="s">
         <v>4</v>
@@ -9364,21 +9385,21 @@
         <v>469</v>
       </c>
     </row>
-    <row r="205" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A205" s="2">
         <v>202</v>
       </c>
       <c r="B205" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D205" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="C205" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D205" s="3" t="s">
+      <c r="E205" s="3" t="s">
         <v>859</v>
-      </c>
-      <c r="E205" s="3" t="s">
-        <v>860</v>
       </c>
       <c r="F205" s="3" t="s">
         <v>4</v>
@@ -9387,7 +9408,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="206" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A206" s="2">
         <v>203</v>
       </c>
@@ -9395,7 +9416,7 @@
         <v>669</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>386</v>
@@ -9410,21 +9431,21 @@
         <v>459</v>
       </c>
     </row>
-    <row r="207" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A207" s="2">
         <v>204</v>
       </c>
       <c r="B207" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D207" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="C207" s="7" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D207" s="3" t="s">
+      <c r="E207" s="3" t="s">
         <v>862</v>
-      </c>
-      <c r="E207" s="3" t="s">
-        <v>863</v>
       </c>
       <c r="F207" s="3" t="s">
         <v>4</v>
@@ -9433,7 +9454,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="208" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A208" s="2">
         <v>205</v>
       </c>
@@ -9441,7 +9462,7 @@
         <v>670</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>49</v>
@@ -9456,21 +9477,21 @@
         <v>469</v>
       </c>
     </row>
-    <row r="209" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A209" s="2">
         <v>206</v>
       </c>
       <c r="B209" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D209" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="C209" s="7" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D209" s="3" t="s">
+      <c r="E209" s="3" t="s">
         <v>865</v>
-      </c>
-      <c r="E209" s="3" t="s">
-        <v>866</v>
       </c>
       <c r="F209" s="3" t="s">
         <v>4</v>
@@ -9479,7 +9500,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="210" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A210" s="2">
         <v>207</v>
       </c>
@@ -9487,7 +9508,7 @@
         <v>671</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>672</v>
@@ -9502,7 +9523,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="211" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A211" s="2">
         <v>208</v>
       </c>
@@ -9510,7 +9531,7 @@
         <v>674</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>71</v>
@@ -9525,7 +9546,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="212" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A212" s="2">
         <v>209</v>
       </c>
@@ -9533,7 +9554,7 @@
         <v>676</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>235</v>
@@ -9548,7 +9569,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="213" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A213" s="2">
         <v>210</v>
       </c>
@@ -9556,7 +9577,7 @@
         <v>677</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>249</v>
@@ -9571,7 +9592,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="214" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A214" s="2">
         <v>211</v>
       </c>
@@ -9579,7 +9600,7 @@
         <v>678</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>424</v>
@@ -9594,7 +9615,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="215" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A215" s="2">
         <v>212</v>
       </c>
@@ -9602,7 +9623,7 @@
         <v>679</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>394</v>
@@ -9617,7 +9638,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="216" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A216" s="2">
         <v>213</v>
       </c>
@@ -9625,7 +9646,7 @@
         <v>680</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>347</v>
@@ -9640,21 +9661,21 @@
         <v>459</v>
       </c>
     </row>
-    <row r="217" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A217" s="2">
         <v>214</v>
       </c>
       <c r="B217" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D217" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="C217" s="7" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D217" s="3" t="s">
+      <c r="E217" s="3" t="s">
         <v>868</v>
-      </c>
-      <c r="E217" s="3" t="s">
-        <v>869</v>
       </c>
       <c r="F217" s="3" t="s">
         <v>4</v>
@@ -9663,7 +9684,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="218" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A218" s="2">
         <v>215</v>
       </c>
@@ -9671,7 +9692,7 @@
         <v>681</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>682</v>
@@ -9686,7 +9707,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="219" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A219" s="2">
         <v>216</v>
       </c>
@@ -9694,7 +9715,7 @@
         <v>684</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D219" s="3" t="s">
         <v>229</v>
@@ -9709,7 +9730,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="220" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A220" s="2">
         <v>217</v>
       </c>
@@ -9717,7 +9738,7 @@
         <v>685</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D220" s="3" t="s">
         <v>171</v>
@@ -9732,7 +9753,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="221" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A221" s="2">
         <v>218</v>
       </c>
@@ -9740,7 +9761,7 @@
         <v>686</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>416</v>
@@ -9755,7 +9776,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="222" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A222" s="2">
         <v>219</v>
       </c>
@@ -9763,7 +9784,7 @@
         <v>687</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D222" s="3" t="s">
         <v>359</v>
@@ -9778,21 +9799,21 @@
         <v>469</v>
       </c>
     </row>
-    <row r="223" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A223" s="2">
         <v>220</v>
       </c>
       <c r="B223" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D223" s="3" t="s">
         <v>870</v>
       </c>
-      <c r="C223" s="7" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D223" s="3" t="s">
+      <c r="E223" s="3" t="s">
         <v>871</v>
-      </c>
-      <c r="E223" s="3" t="s">
-        <v>872</v>
       </c>
       <c r="F223" s="3" t="s">
         <v>4</v>
@@ -9801,7 +9822,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="224" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A224" s="2">
         <v>221</v>
       </c>
@@ -9809,7 +9830,7 @@
         <v>688</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D224" s="3" t="s">
         <v>185</v>
@@ -9824,7 +9845,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="225" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A225" s="2">
         <v>222</v>
       </c>
@@ -9832,7 +9853,7 @@
         <v>689</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D225" s="3" t="s">
         <v>237</v>
@@ -9847,7 +9868,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A226" s="2">
         <v>223</v>
       </c>
@@ -9855,7 +9876,7 @@
         <v>690</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D226" s="3" t="s">
         <v>281</v>
@@ -9870,7 +9891,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A227" s="2">
         <v>224</v>
       </c>
@@ -9878,7 +9899,7 @@
         <v>691</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D227" s="3" t="s">
         <v>692</v>
@@ -9893,21 +9914,21 @@
         <v>507</v>
       </c>
     </row>
-    <row r="228" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A228" s="2">
         <v>225</v>
       </c>
       <c r="B228" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D228" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="C228" s="7" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D228" s="3" t="s">
+      <c r="E228" s="3" t="s">
         <v>874</v>
-      </c>
-      <c r="E228" s="3" t="s">
-        <v>875</v>
       </c>
       <c r="F228" s="3" t="s">
         <v>151</v>
@@ -9916,7 +9937,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="229" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A229" s="2">
         <v>226</v>
       </c>
@@ -9924,7 +9945,7 @@
         <v>694</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D229" s="3" t="s">
         <v>695</v>
@@ -9939,7 +9960,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="230" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A230" s="2">
         <v>227</v>
       </c>
@@ -9947,7 +9968,7 @@
         <v>697</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D230" s="3" t="s">
         <v>372</v>
@@ -9962,7 +9983,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="231" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A231" s="2">
         <v>228</v>
       </c>
@@ -9970,7 +9991,7 @@
         <v>698</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>277</v>
@@ -9985,7 +10006,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A232" s="2">
         <v>229</v>
       </c>
@@ -9993,7 +10014,7 @@
         <v>699</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D232" s="3" t="s">
         <v>187</v>
@@ -10008,21 +10029,21 @@
         <v>469</v>
       </c>
     </row>
-    <row r="233" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A233" s="2">
         <v>230</v>
       </c>
       <c r="B233" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D233" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="C233" s="7" t="s">
-        <v>1151</v>
-      </c>
-      <c r="D233" s="3" t="s">
+      <c r="E233" s="3" t="s">
         <v>877</v>
-      </c>
-      <c r="E233" s="3" t="s">
-        <v>878</v>
       </c>
       <c r="F233" s="3" t="s">
         <v>4</v>
@@ -10031,21 +10052,21 @@
         <v>612</v>
       </c>
     </row>
-    <row r="234" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A234" s="2">
         <v>231</v>
       </c>
       <c r="B234" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D234" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="C234" s="7" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D234" s="3" t="s">
+      <c r="E234" s="3" t="s">
         <v>880</v>
-      </c>
-      <c r="E234" s="3" t="s">
-        <v>881</v>
       </c>
       <c r="F234" s="3" t="s">
         <v>4</v>
@@ -10054,7 +10075,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A235" s="2">
         <v>232</v>
       </c>
@@ -10062,7 +10083,7 @@
         <v>700</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>101</v>
@@ -10077,7 +10098,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A236" s="2">
         <v>233</v>
       </c>
@@ -10085,7 +10106,7 @@
         <v>701</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D236" s="3" t="s">
         <v>293</v>
@@ -10100,7 +10121,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="237" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A237" s="2">
         <v>234</v>
       </c>
@@ -10108,7 +10129,7 @@
         <v>702</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>291</v>
@@ -10123,7 +10144,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="238" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A238" s="2">
         <v>235</v>
       </c>
@@ -10131,7 +10152,7 @@
         <v>703</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>247</v>
@@ -10146,21 +10167,21 @@
         <v>469</v>
       </c>
     </row>
-    <row r="239" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A239" s="2">
         <v>236</v>
       </c>
       <c r="B239" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D239" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="C239" s="7" t="s">
-        <v>1157</v>
-      </c>
-      <c r="D239" s="3" t="s">
+      <c r="E239" s="3" t="s">
         <v>883</v>
-      </c>
-      <c r="E239" s="3" t="s">
-        <v>884</v>
       </c>
       <c r="F239" s="3" t="s">
         <v>4</v>
@@ -10169,7 +10190,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="240" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A240" s="2">
         <v>237</v>
       </c>
@@ -10177,7 +10198,7 @@
         <v>704</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D240" s="3" t="s">
         <v>125</v>
@@ -10192,7 +10213,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="241" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A241" s="2">
         <v>238</v>
       </c>
@@ -10200,7 +10221,7 @@
         <v>705</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D241" s="3" t="s">
         <v>329</v>
@@ -10215,21 +10236,21 @@
         <v>463</v>
       </c>
     </row>
-    <row r="242" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A242" s="2">
         <v>239</v>
       </c>
       <c r="B242" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D242" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="C242" s="7" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D242" s="3" t="s">
+      <c r="E242" s="3" t="s">
         <v>886</v>
-      </c>
-      <c r="E242" s="3" t="s">
-        <v>887</v>
       </c>
       <c r="F242" s="3" t="s">
         <v>4</v>
@@ -10238,7 +10259,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="243" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A243" s="2">
         <v>240</v>
       </c>
@@ -10246,7 +10267,7 @@
         <v>706</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D243" s="3" t="s">
         <v>428</v>
@@ -10261,7 +10282,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="244" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A244" s="2">
         <v>241</v>
       </c>
@@ -10269,7 +10290,7 @@
         <v>707</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D244" s="3" t="s">
         <v>213</v>
@@ -10284,7 +10305,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="245" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A245" s="2">
         <v>242</v>
       </c>
@@ -10292,7 +10313,7 @@
         <v>708</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D245" s="3" t="s">
         <v>709</v>
@@ -10307,7 +10328,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="246" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A246" s="2">
         <v>243</v>
       </c>
@@ -10315,7 +10336,7 @@
         <v>711</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D246" s="3" t="s">
         <v>257</v>
@@ -10330,21 +10351,21 @@
         <v>469</v>
       </c>
     </row>
-    <row r="247" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A247" s="2">
         <v>244</v>
       </c>
       <c r="B247" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D247" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="C247" s="7" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D247" s="3" t="s">
+      <c r="E247" s="3" t="s">
         <v>889</v>
-      </c>
-      <c r="E247" s="3" t="s">
-        <v>890</v>
       </c>
       <c r="F247" s="3" t="s">
         <v>151</v>
@@ -10353,7 +10374,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="248" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A248" s="2">
         <v>245</v>
       </c>
@@ -10361,7 +10382,7 @@
         <v>712</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D248" s="3" t="s">
         <v>255</v>
@@ -10376,7 +10397,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="249" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A249" s="2">
         <v>246</v>
       </c>
@@ -10384,7 +10405,7 @@
         <v>713</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>105</v>
@@ -10399,7 +10420,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="250" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A250" s="2">
         <v>247</v>
       </c>
@@ -10407,7 +10428,7 @@
         <v>714</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D250" s="3" t="s">
         <v>297</v>
@@ -10422,7 +10443,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="251" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A251" s="2">
         <v>248</v>
       </c>
@@ -10430,7 +10451,7 @@
         <v>715</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>65</v>
@@ -10445,21 +10466,21 @@
         <v>553</v>
       </c>
     </row>
-    <row r="252" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A252" s="2">
         <v>249</v>
       </c>
       <c r="B252" s="7" t="s">
+        <v>890</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D252" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="C252" s="7" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D252" s="3" t="s">
+      <c r="E252" s="3" t="s">
         <v>892</v>
-      </c>
-      <c r="E252" s="3" t="s">
-        <v>893</v>
       </c>
       <c r="F252" s="3" t="s">
         <v>4</v>
@@ -10468,7 +10489,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="253" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A253" s="2">
         <v>250</v>
       </c>
@@ -10476,7 +10497,7 @@
         <v>716</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D253" s="3" t="s">
         <v>89</v>
@@ -10491,7 +10512,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="254" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A254" s="2">
         <v>251</v>
       </c>
@@ -10499,7 +10520,7 @@
         <v>717</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D254" s="3" t="s">
         <v>718</v>
@@ -10514,21 +10535,21 @@
         <v>469</v>
       </c>
     </row>
-    <row r="255" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A255" s="2">
         <v>252</v>
       </c>
       <c r="B255" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D255" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="C255" s="7" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D255" s="3" t="s">
+      <c r="E255" s="3" t="s">
         <v>895</v>
-      </c>
-      <c r="E255" s="3" t="s">
-        <v>896</v>
       </c>
       <c r="F255" s="3" t="s">
         <v>4</v>
@@ -10537,7 +10558,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="256" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A256" s="2">
         <v>253</v>
       </c>
@@ -10545,7 +10566,7 @@
         <v>720</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>283</v>
@@ -10560,21 +10581,21 @@
         <v>489</v>
       </c>
     </row>
-    <row r="257" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A257" s="2">
         <v>254</v>
       </c>
       <c r="B257" s="7" t="s">
+        <v>896</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D257" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="C257" s="7" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D257" s="3" t="s">
+      <c r="E257" s="3" t="s">
         <v>898</v>
-      </c>
-      <c r="E257" s="3" t="s">
-        <v>899</v>
       </c>
       <c r="F257" s="3" t="s">
         <v>4</v>
@@ -10583,21 +10604,21 @@
         <v>463</v>
       </c>
     </row>
-    <row r="258" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A258" s="2">
         <v>255</v>
       </c>
       <c r="B258" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D258" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="C258" s="7" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D258" s="3" t="s">
+      <c r="E258" s="3" t="s">
         <v>901</v>
-      </c>
-      <c r="E258" s="3" t="s">
-        <v>902</v>
       </c>
       <c r="F258" s="3" t="s">
         <v>4</v>
@@ -10606,7 +10627,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="259" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A259" s="2">
         <v>256</v>
       </c>
@@ -10614,7 +10635,7 @@
         <v>721</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D259" s="3" t="s">
         <v>21</v>
@@ -10629,7 +10650,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="260" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A260" s="2">
         <v>257</v>
       </c>
@@ -10637,7 +10658,7 @@
         <v>722</v>
       </c>
       <c r="C260" s="7" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D260" s="3" t="s">
         <v>91</v>
@@ -10652,7 +10673,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="261" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A261" s="2">
         <v>258</v>
       </c>
@@ -10660,7 +10681,7 @@
         <v>723</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D261" s="3" t="s">
         <v>11</v>
@@ -10675,21 +10696,21 @@
         <v>463</v>
       </c>
     </row>
-    <row r="262" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A262" s="2">
         <v>259</v>
       </c>
       <c r="B262" s="7" t="s">
+        <v>902</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D262" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="C262" s="7" t="s">
-        <v>1180</v>
-      </c>
-      <c r="D262" s="3" t="s">
+      <c r="E262" s="3" t="s">
         <v>904</v>
-      </c>
-      <c r="E262" s="3" t="s">
-        <v>905</v>
       </c>
       <c r="F262" s="3" t="s">
         <v>4</v>
@@ -10698,7 +10719,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="263" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A263" s="2">
         <v>260</v>
       </c>
@@ -10706,7 +10727,7 @@
         <v>724</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D263" s="3" t="s">
         <v>51</v>
@@ -10721,7 +10742,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="264" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A264" s="2">
         <v>261</v>
       </c>
@@ -10729,7 +10750,7 @@
         <v>725</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D264" s="3" t="s">
         <v>323</v>
@@ -10744,7 +10765,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="265" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A265" s="2">
         <v>262</v>
       </c>
@@ -10752,7 +10773,7 @@
         <v>726</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D265" s="3" t="s">
         <v>111</v>
@@ -10767,7 +10788,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="266" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A266" s="2">
         <v>263</v>
       </c>
@@ -10775,7 +10796,7 @@
         <v>727</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D266" s="3" t="s">
         <v>349</v>
@@ -10790,7 +10811,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="267" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A267" s="2">
         <v>264</v>
       </c>
@@ -10798,7 +10819,7 @@
         <v>728</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D267" s="3" t="s">
         <v>33</v>
@@ -10813,7 +10834,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="268" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A268" s="2">
         <v>265</v>
       </c>
@@ -10821,7 +10842,7 @@
         <v>729</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D268" s="3" t="s">
         <v>165</v>
@@ -10836,7 +10857,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="269" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A269" s="2">
         <v>266</v>
       </c>
@@ -10844,7 +10865,7 @@
         <v>730</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D269" s="3" t="s">
         <v>731</v>
@@ -10859,7 +10880,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="270" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A270" s="2">
         <v>267</v>
       </c>
@@ -10867,7 +10888,7 @@
         <v>733</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>414</v>
@@ -10882,7 +10903,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="271" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A271" s="2">
         <v>268</v>
       </c>
@@ -10890,7 +10911,7 @@
         <v>735</v>
       </c>
       <c r="C271" s="7" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>97</v>
@@ -10905,7 +10926,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="272" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A272" s="2">
         <v>269</v>
       </c>
@@ -10913,7 +10934,7 @@
         <v>734</v>
       </c>
       <c r="C272" s="7" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>259</v>
@@ -10928,7 +10949,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="273" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A273" s="2">
         <v>270</v>
       </c>
@@ -10936,7 +10957,7 @@
         <v>736</v>
       </c>
       <c r="C273" s="7" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D273" s="3" t="s">
         <v>299</v>
@@ -10951,7 +10972,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="274" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A274" s="2">
         <v>271</v>
       </c>
@@ -10959,7 +10980,7 @@
         <v>737</v>
       </c>
       <c r="C274" s="7" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>233</v>
@@ -10974,7 +10995,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="275" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A275" s="2">
         <v>272</v>
       </c>
@@ -10982,7 +11003,7 @@
         <v>738</v>
       </c>
       <c r="C275" s="7" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D275" s="3" t="s">
         <v>113</v>
@@ -10997,7 +11018,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="276" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A276" s="2">
         <v>273</v>
       </c>
@@ -11005,7 +11026,7 @@
         <v>739</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D276" s="3" t="s">
         <v>37</v>
@@ -11020,7 +11041,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="277" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A277" s="2">
         <v>274</v>
       </c>
@@ -11028,7 +11049,7 @@
         <v>740</v>
       </c>
       <c r="C277" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D277" s="3" t="s">
         <v>353</v>
@@ -11043,7 +11064,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="278" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A278" s="2">
         <v>275</v>
       </c>
@@ -11051,7 +11072,7 @@
         <v>741</v>
       </c>
       <c r="C278" s="7" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D278" s="3" t="s">
         <v>223</v>
@@ -11066,7 +11087,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="279" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A279" s="2">
         <v>276</v>
       </c>
@@ -11074,7 +11095,7 @@
         <v>742</v>
       </c>
       <c r="C279" s="7" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>412</v>
@@ -11089,7 +11110,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="280" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A280" s="2">
         <v>277</v>
       </c>
@@ -11097,7 +11118,7 @@
         <v>743</v>
       </c>
       <c r="C280" s="7" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D280" s="3" t="s">
         <v>47</v>
@@ -11112,7 +11133,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="281" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A281" s="2">
         <v>278</v>
       </c>
@@ -11120,7 +11141,7 @@
         <v>744</v>
       </c>
       <c r="C281" s="7" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D281" s="3" t="s">
         <v>147</v>
@@ -11135,7 +11156,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="282" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A282" s="2">
         <v>279</v>
       </c>
@@ -11143,7 +11164,7 @@
         <v>745</v>
       </c>
       <c r="C282" s="7" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D282" s="3" t="s">
         <v>35</v>
@@ -11158,21 +11179,21 @@
         <v>469</v>
       </c>
     </row>
-    <row r="283" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A283" s="2">
         <v>280</v>
       </c>
       <c r="B283" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="C283" s="7" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D283" s="3" t="s">
         <v>906</v>
       </c>
-      <c r="C283" s="7" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D283" s="3" t="s">
+      <c r="E283" s="3" t="s">
         <v>907</v>
-      </c>
-      <c r="E283" s="3" t="s">
-        <v>908</v>
       </c>
       <c r="F283" s="3" t="s">
         <v>508</v>
@@ -11181,21 +11202,21 @@
         <v>494</v>
       </c>
     </row>
-    <row r="284" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A284" s="2">
         <v>281</v>
       </c>
       <c r="B284" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="C284" s="7" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D284" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="C284" s="7" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D284" s="3" t="s">
+      <c r="E284" s="3" t="s">
         <v>910</v>
-      </c>
-      <c r="E284" s="3" t="s">
-        <v>911</v>
       </c>
       <c r="F284" s="3" t="s">
         <v>4</v>
@@ -11204,7 +11225,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="285" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A285" s="2">
         <v>282</v>
       </c>
@@ -11212,7 +11233,7 @@
         <v>746</v>
       </c>
       <c r="C285" s="7" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D285" s="3" t="s">
         <v>45</v>
@@ -11227,21 +11248,21 @@
         <v>485</v>
       </c>
     </row>
-    <row r="286" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A286" s="2">
         <v>283</v>
       </c>
       <c r="B286" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D286" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="C286" s="7" t="s">
-        <v>1204</v>
-      </c>
-      <c r="D286" s="3" t="s">
+      <c r="E286" s="3" t="s">
         <v>913</v>
-      </c>
-      <c r="E286" s="3" t="s">
-        <v>914</v>
       </c>
       <c r="F286" s="3" t="s">
         <v>4</v>
@@ -11250,21 +11271,21 @@
         <v>509</v>
       </c>
     </row>
-    <row r="287" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A287" s="2">
         <v>284</v>
       </c>
       <c r="B287" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="C287" s="7" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D287" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="C287" s="7" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D287" s="3" t="s">
+      <c r="E287" s="3" t="s">
         <v>916</v>
-      </c>
-      <c r="E287" s="3" t="s">
-        <v>917</v>
       </c>
       <c r="F287" s="3" t="s">
         <v>4</v>
@@ -11273,7 +11294,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="288" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:7" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A288" s="2">
         <v>285</v>
       </c>
@@ -11281,7 +11302,7 @@
         <v>747</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D288" s="3" t="s">
         <v>261</v>
@@ -11296,21 +11317,21 @@
         <v>494</v>
       </c>
     </row>
-    <row r="289" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:19" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A289" s="2">
         <v>286</v>
       </c>
       <c r="B289" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="C289" s="7" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D289" s="3" t="s">
         <v>918</v>
       </c>
-      <c r="C289" s="7" t="s">
-        <v>1207</v>
-      </c>
-      <c r="D289" s="3" t="s">
+      <c r="E289" s="3" t="s">
         <v>919</v>
-      </c>
-      <c r="E289" s="3" t="s">
-        <v>920</v>
       </c>
       <c r="F289" s="3" t="s">
         <v>4</v>
@@ -11319,7 +11340,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="290" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:19" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A290" s="2">
         <v>287</v>
       </c>
@@ -11327,7 +11348,7 @@
         <v>748</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D290" s="3" t="s">
         <v>127</v>
@@ -11342,7 +11363,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="291" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:19" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A291" s="2">
         <v>288</v>
       </c>
@@ -11350,7 +11371,7 @@
         <v>749</v>
       </c>
       <c r="C291" s="7" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D291" s="3" t="s">
         <v>73</v>
@@ -11365,7 +11386,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="292" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:19" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A292" s="2">
         <v>289</v>
       </c>
@@ -11373,7 +11394,7 @@
         <v>750</v>
       </c>
       <c r="C292" s="7" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>751</v>
@@ -11388,7 +11409,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="293" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:19" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A293" s="2">
         <v>290</v>
       </c>
@@ -11396,7 +11417,7 @@
         <v>753</v>
       </c>
       <c r="C293" s="7" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D293" s="3" t="s">
         <v>163</v>
@@ -11411,7 +11432,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="294" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:19" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A294" s="2">
         <v>291</v>
       </c>
@@ -11419,7 +11440,7 @@
         <v>754</v>
       </c>
       <c r="C294" s="7" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>307</v>
@@ -11434,7 +11455,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="295" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:19" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A295" s="2">
         <v>292</v>
       </c>
@@ -11442,7 +11463,7 @@
         <v>755</v>
       </c>
       <c r="C295" s="7" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D295" s="3" t="s">
         <v>756</v>
@@ -11457,7 +11478,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="296" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:19" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A296" s="2">
         <v>293</v>
       </c>
@@ -11465,7 +11486,7 @@
         <v>758</v>
       </c>
       <c r="C296" s="7" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D296" s="3" t="s">
         <v>422</v>
@@ -11480,7 +11501,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="297" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:19" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A297" s="2">
         <v>294</v>
       </c>
@@ -11488,7 +11509,7 @@
         <v>759</v>
       </c>
       <c r="C297" s="7" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D297" s="3" t="s">
         <v>392</v>
@@ -11503,7 +11524,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="298" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:19" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A298" s="2">
         <v>295</v>
       </c>
@@ -11511,7 +11532,7 @@
         <v>760</v>
       </c>
       <c r="C298" s="7" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D298" s="3" t="s">
         <v>761</v>
@@ -11526,7 +11547,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="299" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:19" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A299" s="2">
         <v>296</v>
       </c>
@@ -11534,7 +11555,7 @@
         <v>765</v>
       </c>
       <c r="C299" s="7" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D299" s="3" t="s">
         <v>376</v>
@@ -11549,7 +11570,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="300" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:19" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A300" s="2">
         <v>297</v>
       </c>
@@ -11557,7 +11578,7 @@
         <v>763</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D300" s="3" t="s">
         <v>343</v>
@@ -11572,7 +11593,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="301" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:19" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A301" s="2">
         <v>298</v>
       </c>
@@ -11580,7 +11601,7 @@
         <v>764</v>
       </c>
       <c r="C301" s="7" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D301" s="3" t="s">
         <v>169</v>
@@ -11595,7 +11616,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="302" spans="1:7" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:19" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A302" s="2">
         <v>299</v>
       </c>
@@ -11603,7 +11624,7 @@
         <v>766</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D302" s="3" t="s">
         <v>143</v>
@@ -11618,7 +11639,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A303" s="4"/>
       <c r="B303" s="7"/>
       <c r="C303" s="7"/>
@@ -11626,8 +11647,20 @@
       <c r="E303" s="3"/>
       <c r="F303" s="3"/>
       <c r="G303" s="3"/>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H303"/>
+      <c r="I303"/>
+      <c r="J303"/>
+      <c r="K303"/>
+      <c r="L303"/>
+      <c r="M303"/>
+      <c r="N303"/>
+      <c r="O303"/>
+      <c r="P303"/>
+      <c r="Q303"/>
+      <c r="R303"/>
+      <c r="S303"/>
+    </row>
+    <row r="304" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A304" s="4"/>
       <c r="B304" s="7"/>
       <c r="C304" s="7"/>
@@ -15304,11 +15337,12 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:H281">
     <sortCondition ref="E4:E281"/>
   </sortState>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="A2:G2"/>
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I1" r:id="rId1" xr:uid="{D62CBED1-BF84-8C45-B536-7A06E2A210BF}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{86C5B263-C253-4546-9080-0E2EE2C4C4BD}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="88" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId2"/>
@@ -15316,21 +15350,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100253095716083E2469757009D83990400" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="df8b00d6dc0112f75da8f9ea8b1d94b9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -15444,30 +15463,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DCBE712-97F0-4FAA-AF1B-3A927233A34A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC421B18-7757-4F49-BA56-67D973150F2B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10A87730-43C4-44DB-826F-19B80CA41314}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15481,4 +15492,27 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DCBE712-97F0-4FAA-AF1B-3A927233A34A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC421B18-7757-4F49-BA56-67D973150F2B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>